--- a/BNP Trades Tracker-2025-10-7.xlsx
+++ b/BNP Trades Tracker-2025-10-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\57. BNP Trades Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E94C01E-1E33-4714-8893-A66BDAA1295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C436BCD-075C-4D7A-9FF6-32C70DA51BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
